--- a/Data/EC/NIT-9005929649.xlsx
+++ b/Data/EC/NIT-9005929649.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32BC8F37-5372-414D-94BE-F8BF9B442C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA6779F-A409-4ECC-AD48-28AA093165B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BF78426-8A53-45D7-AF83-99646572C6E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D627AE4E-21AE-4F66-AF62-94C12D8F0F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>20220753</t>
+  </si>
+  <si>
+    <t>MIRTHA ENILSA MENDOZA SOTO</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
     <t>19874588</t>
   </si>
   <si>
@@ -74,13 +83,7 @@
     <t>2507</t>
   </si>
   <si>
-    <t>20220753</t>
-  </si>
-  <si>
-    <t>MIRTHA ENILSA MENDOZA SOTO</t>
-  </si>
-  <si>
-    <t>1908</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -179,22 +182,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -394,23 +397,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,10 +441,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0003E846-9D63-B126-E380-7D1FE57E2C20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E54C359-9E12-193D-A9F3-6E19FB2ED1EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,8 +848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9A4D39-1CB8-4F2C-8331-917ABDF03D5D}">
-  <dimension ref="B2:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E6FA1-2280-45A6-8BF3-DDAF5838689E}">
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -870,7 +873,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -915,7 +918,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -947,12 +950,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>106065</v>
+        <v>179005</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -963,17 +966,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1000,13 +1003,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1023,52 +1026,64 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>72940</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>1823500</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G17" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F17" s="18">
+        <v>72940</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1823500</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="24">
+        <v>72940</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1823500</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="32"/>
       <c r="H23" s="1" t="s">
@@ -1077,12 +1092,23 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
